--- a/Chip U/100mV Analysis/Number of Events.xlsx
+++ b/Chip U/100mV Analysis/Number of Events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua Chen\Desktop\Other\GURU\Clampfit2\Chip U\100mV Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB0705F-9E60-4245-96D5-E5374BEA775E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E2480C-1370-48CC-9A5F-65F65E0690BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49725" yWindow="3630" windowWidth="16455" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45840" yWindow="3735" windowWidth="16455" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="5">
   <si>
     <t>Uncategorized</t>
   </si>
@@ -367,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L131"/>
+  <dimension ref="A1:L135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -408,9 +408,15 @@
       <c r="I2">
         <v>12</v>
       </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>19</v>
+      </c>
       <c r="L2">
-        <f>SUM(B2:I2)</f>
-        <v>75</v>
+        <f>SUM(B2:K2)</f>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -441,9 +447,15 @@
       <c r="I3">
         <v>18</v>
       </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>14</v>
+      </c>
       <c r="L3">
-        <f>SUM(B3:I3)</f>
-        <v>84</v>
+        <f>SUM(B3:K3)</f>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -471,6 +483,12 @@
       <c r="I4" t="s">
         <v>2</v>
       </c>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
@@ -497,6 +515,12 @@
       <c r="I5" t="s">
         <v>2</v>
       </c>
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
@@ -523,6 +547,12 @@
       <c r="I6" t="s">
         <v>2</v>
       </c>
+      <c r="J6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
@@ -549,6 +579,12 @@
       <c r="I7" t="s">
         <v>2</v>
       </c>
+      <c r="J7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
@@ -575,6 +611,12 @@
       <c r="I8" t="s">
         <v>2</v>
       </c>
+      <c r="J8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
@@ -601,6 +643,12 @@
       <c r="I9" t="s">
         <v>2</v>
       </c>
+      <c r="J9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
@@ -627,6 +675,12 @@
       <c r="I10" t="s">
         <v>2</v>
       </c>
+      <c r="J10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
@@ -653,6 +707,12 @@
       <c r="I11" t="s">
         <v>2</v>
       </c>
+      <c r="J11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
@@ -679,6 +739,12 @@
       <c r="I12" t="s">
         <v>2</v>
       </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
@@ -705,6 +771,12 @@
       <c r="I13" t="s">
         <v>2</v>
       </c>
+      <c r="J13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
@@ -731,6 +803,12 @@
       <c r="I14" t="s">
         <v>2</v>
       </c>
+      <c r="J14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
@@ -757,6 +835,12 @@
       <c r="I15" t="s">
         <v>2</v>
       </c>
+      <c r="J15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
@@ -783,8 +867,14 @@
       <c r="I16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J16" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>0</v>
       </c>
@@ -809,8 +899,14 @@
       <c r="I17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>0</v>
       </c>
@@ -835,8 +931,14 @@
       <c r="I18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>0</v>
       </c>
@@ -861,8 +963,14 @@
       <c r="I19" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -887,8 +995,14 @@
       <c r="I20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -913,8 +1027,14 @@
       <c r="I21" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>0</v>
       </c>
@@ -939,8 +1059,14 @@
       <c r="I22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>0</v>
       </c>
@@ -965,8 +1091,14 @@
       <c r="I23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J23" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>0</v>
       </c>
@@ -991,8 +1123,14 @@
       <c r="I24" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>0</v>
       </c>
@@ -1017,8 +1155,14 @@
       <c r="I25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>0</v>
       </c>
@@ -1043,8 +1187,14 @@
       <c r="I26" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>0</v>
       </c>
@@ -1069,8 +1219,14 @@
       <c r="I27" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J27" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>0</v>
       </c>
@@ -1095,8 +1251,14 @@
       <c r="I28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J28" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>0</v>
       </c>
@@ -1121,8 +1283,14 @@
       <c r="I29" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>0</v>
       </c>
@@ -1147,8 +1315,14 @@
       <c r="I30" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J30" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>0</v>
       </c>
@@ -1173,8 +1347,14 @@
       <c r="I31" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J31" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>0</v>
       </c>
@@ -1199,8 +1379,14 @@
       <c r="I32" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J32" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>0</v>
       </c>
@@ -1225,8 +1411,14 @@
       <c r="I33" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>0</v>
       </c>
@@ -1251,8 +1443,14 @@
       <c r="I34" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>0</v>
       </c>
@@ -1277,8 +1475,14 @@
       <c r="I35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J35" t="s">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>0</v>
       </c>
@@ -1303,8 +1507,14 @@
       <c r="I36" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J36" t="s">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>0</v>
       </c>
@@ -1329,8 +1539,14 @@
       <c r="I37" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J37" t="s">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>0</v>
       </c>
@@ -1355,8 +1571,14 @@
       <c r="I38" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J38" t="s">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>0</v>
       </c>
@@ -1381,8 +1603,14 @@
       <c r="I39" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J39" t="s">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>0</v>
       </c>
@@ -1407,8 +1635,14 @@
       <c r="I40" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J40" t="s">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>0</v>
       </c>
@@ -1433,8 +1667,14 @@
       <c r="I41" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J41" t="s">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>0</v>
       </c>
@@ -1459,8 +1699,14 @@
       <c r="I42" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J42" t="s">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>0</v>
       </c>
@@ -1485,8 +1731,14 @@
       <c r="I43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J43" t="s">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>0</v>
       </c>
@@ -1511,8 +1763,14 @@
       <c r="I44" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>0</v>
       </c>
@@ -1537,8 +1795,14 @@
       <c r="I45" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J45" t="s">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>0</v>
       </c>
@@ -1563,8 +1827,14 @@
       <c r="I46" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J46" t="s">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>0</v>
       </c>
@@ -1589,8 +1859,14 @@
       <c r="I47" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J47" t="s">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
         <v>0</v>
       </c>
@@ -1615,8 +1891,14 @@
       <c r="I48" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
         <v>0</v>
       </c>
@@ -1641,8 +1923,14 @@
       <c r="I49" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J49" t="s">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>0</v>
       </c>
@@ -1667,8 +1955,14 @@
       <c r="I50" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J50" t="s">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
         <v>0</v>
       </c>
@@ -1693,8 +1987,14 @@
       <c r="I51" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J51" t="s">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
         <v>0</v>
       </c>
@@ -1719,8 +2019,14 @@
       <c r="I52" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J52" t="s">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
         <v>0</v>
       </c>
@@ -1745,8 +2051,14 @@
       <c r="I53" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J53" t="s">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>0</v>
       </c>
@@ -1771,8 +2083,14 @@
       <c r="I54" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J54" t="s">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
         <v>0</v>
       </c>
@@ -1797,8 +2115,14 @@
       <c r="I55" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J55" t="s">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
         <v>0</v>
       </c>
@@ -1823,8 +2147,14 @@
       <c r="I56" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J56" t="s">
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
         <v>0</v>
       </c>
@@ -1849,8 +2179,14 @@
       <c r="I57" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J57" t="s">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
         <v>0</v>
       </c>
@@ -1875,8 +2211,14 @@
       <c r="I58" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J58" t="s">
+        <v>0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
         <v>0</v>
       </c>
@@ -1901,8 +2243,14 @@
       <c r="I59" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J59" t="s">
+        <v>0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
         <v>0</v>
       </c>
@@ -1927,8 +2275,14 @@
       <c r="I60" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J60" t="s">
+        <v>0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
         <v>0</v>
       </c>
@@ -1953,8 +2307,14 @@
       <c r="I61" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J61" t="s">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
         <v>0</v>
       </c>
@@ -1979,8 +2339,14 @@
       <c r="I62" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J62" t="s">
+        <v>0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
         <v>0</v>
       </c>
@@ -2005,8 +2371,14 @@
       <c r="I63" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J63" t="s">
+        <v>0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
         <v>0</v>
       </c>
@@ -2031,8 +2403,14 @@
       <c r="I64" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J64" t="s">
+        <v>0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
         <v>0</v>
       </c>
@@ -2057,8 +2435,14 @@
       <c r="I65" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J65" t="s">
+        <v>0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
         <v>0</v>
       </c>
@@ -2083,8 +2467,14 @@
       <c r="I66" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J66" t="s">
+        <v>0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
         <v>0</v>
       </c>
@@ -2109,8 +2499,14 @@
       <c r="I67" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J67" t="s">
+        <v>0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
         <v>0</v>
       </c>
@@ -2135,8 +2531,14 @@
       <c r="I68" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J68" t="s">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
         <v>0</v>
       </c>
@@ -2161,8 +2563,14 @@
       <c r="I69" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J69" t="s">
+        <v>0</v>
+      </c>
+      <c r="K69" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
         <v>0</v>
       </c>
@@ -2187,8 +2595,14 @@
       <c r="I70" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J70" t="s">
+        <v>0</v>
+      </c>
+      <c r="K70" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
         <v>0</v>
       </c>
@@ -2213,8 +2627,14 @@
       <c r="I71" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J71" t="s">
+        <v>0</v>
+      </c>
+      <c r="K71" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
         <v>0</v>
       </c>
@@ -2239,8 +2659,14 @@
       <c r="I72" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J72" t="s">
+        <v>0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
         <v>0</v>
       </c>
@@ -2265,8 +2691,14 @@
       <c r="I73" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J73" t="s">
+        <v>0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
         <v>0</v>
       </c>
@@ -2291,8 +2723,14 @@
       <c r="I74" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J74" t="s">
+        <v>0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
         <v>1</v>
       </c>
@@ -2317,8 +2755,14 @@
       <c r="I75" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J75" t="s">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
         <v>1</v>
       </c>
@@ -2343,8 +2787,14 @@
       <c r="I76" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J76" t="s">
+        <v>0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
         <v>1</v>
       </c>
@@ -2369,8 +2819,14 @@
       <c r="I77" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J77" t="s">
+        <v>0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
         <v>1</v>
       </c>
@@ -2395,8 +2851,14 @@
       <c r="I78" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J78" t="s">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
         <v>1</v>
       </c>
@@ -2421,8 +2883,14 @@
       <c r="I79" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J79" t="s">
+        <v>0</v>
+      </c>
+      <c r="K79" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B80" t="s">
         <v>1</v>
       </c>
@@ -2447,8 +2915,14 @@
       <c r="I80" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J80" t="s">
+        <v>0</v>
+      </c>
+      <c r="K80" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C81" t="s">
         <v>0</v>
       </c>
@@ -2470,8 +2944,14 @@
       <c r="I81" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J81" t="s">
+        <v>0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C82" t="s">
         <v>0</v>
       </c>
@@ -2493,8 +2973,14 @@
       <c r="I82" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J82" t="s">
+        <v>0</v>
+      </c>
+      <c r="K82" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C83" t="s">
         <v>0</v>
       </c>
@@ -2516,8 +3002,14 @@
       <c r="I83" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J83" t="s">
+        <v>0</v>
+      </c>
+      <c r="K83" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C84" t="s">
         <v>0</v>
       </c>
@@ -2539,8 +3031,14 @@
       <c r="I84" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J84" t="s">
+        <v>0</v>
+      </c>
+      <c r="K84" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C85" t="s">
         <v>0</v>
       </c>
@@ -2562,8 +3060,14 @@
       <c r="I85" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J85" t="s">
+        <v>0</v>
+      </c>
+      <c r="K85" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C86" t="s">
         <v>0</v>
       </c>
@@ -2585,8 +3089,14 @@
       <c r="I86" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J86" t="s">
+        <v>0</v>
+      </c>
+      <c r="K86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C87" t="s">
         <v>0</v>
       </c>
@@ -2608,8 +3118,14 @@
       <c r="I87" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J87" t="s">
+        <v>0</v>
+      </c>
+      <c r="K87" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C88" t="s">
         <v>0</v>
       </c>
@@ -2631,8 +3147,14 @@
       <c r="I88" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J88" t="s">
+        <v>0</v>
+      </c>
+      <c r="K88" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -2654,8 +3176,14 @@
       <c r="I89" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J89" t="s">
+        <v>0</v>
+      </c>
+      <c r="K89" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C90" t="s">
         <v>0</v>
       </c>
@@ -2677,8 +3205,14 @@
       <c r="I90" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J90" t="s">
+        <v>0</v>
+      </c>
+      <c r="K90" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C91" t="s">
         <v>0</v>
       </c>
@@ -2700,8 +3234,14 @@
       <c r="I91" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J91" t="s">
+        <v>0</v>
+      </c>
+      <c r="K91" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C92" t="s">
         <v>0</v>
       </c>
@@ -2723,8 +3263,14 @@
       <c r="I92" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J92" t="s">
+        <v>0</v>
+      </c>
+      <c r="K92" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C93" t="s">
         <v>0</v>
       </c>
@@ -2746,8 +3292,14 @@
       <c r="I93" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J93" t="s">
+        <v>0</v>
+      </c>
+      <c r="K93" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C94" t="s">
         <v>0</v>
       </c>
@@ -2769,8 +3321,14 @@
       <c r="I94" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J94" t="s">
+        <v>0</v>
+      </c>
+      <c r="K94" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C95" t="s">
         <v>0</v>
       </c>
@@ -2792,8 +3350,14 @@
       <c r="I95" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J95" t="s">
+        <v>0</v>
+      </c>
+      <c r="K95" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C96" t="s">
         <v>0</v>
       </c>
@@ -2815,8 +3379,14 @@
       <c r="I96" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J96" t="s">
+        <v>0</v>
+      </c>
+      <c r="K96" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C97" t="s">
         <v>0</v>
       </c>
@@ -2835,8 +3405,14 @@
       <c r="I97" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J97" t="s">
+        <v>0</v>
+      </c>
+      <c r="K97" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C98" t="s">
         <v>1</v>
       </c>
@@ -2855,8 +3431,14 @@
       <c r="I98" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J98" t="s">
+        <v>0</v>
+      </c>
+      <c r="K98" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C99" t="s">
         <v>1</v>
       </c>
@@ -2875,8 +3457,14 @@
       <c r="I99" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J99" t="s">
+        <v>0</v>
+      </c>
+      <c r="K99" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C100" t="s">
         <v>1</v>
       </c>
@@ -2892,8 +3480,14 @@
       <c r="I100" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J100" t="s">
+        <v>0</v>
+      </c>
+      <c r="K100" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C101" t="s">
         <v>1</v>
       </c>
@@ -2909,8 +3503,14 @@
       <c r="I101" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J101" t="s">
+        <v>0</v>
+      </c>
+      <c r="K101" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C102" t="s">
         <v>1</v>
       </c>
@@ -2926,8 +3526,14 @@
       <c r="I102" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J102" t="s">
+        <v>0</v>
+      </c>
+      <c r="K102" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C103" t="s">
         <v>1</v>
       </c>
@@ -2943,8 +3549,14 @@
       <c r="I103" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J103" t="s">
+        <v>0</v>
+      </c>
+      <c r="K103" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C104" t="s">
         <v>1</v>
       </c>
@@ -2960,8 +3572,14 @@
       <c r="I104" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J104" t="s">
+        <v>0</v>
+      </c>
+      <c r="K104" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="3:11" x14ac:dyDescent="0.4">
       <c r="F105" t="s">
         <v>1</v>
       </c>
@@ -2974,8 +3592,14 @@
       <c r="I105" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J105" t="s">
+        <v>0</v>
+      </c>
+      <c r="K105" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="3:11" x14ac:dyDescent="0.4">
       <c r="F106" t="s">
         <v>1</v>
       </c>
@@ -2988,8 +3612,14 @@
       <c r="I106" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J106" t="s">
+        <v>0</v>
+      </c>
+      <c r="K106" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="3:11" x14ac:dyDescent="0.4">
       <c r="F107" t="s">
         <v>1</v>
       </c>
@@ -3002,166 +3632,309 @@
       <c r="I107" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J107" t="s">
+        <v>0</v>
+      </c>
+      <c r="K107" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="3:11" x14ac:dyDescent="0.4">
       <c r="H108" t="s">
         <v>0</v>
       </c>
       <c r="I108" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J108" t="s">
+        <v>0</v>
+      </c>
+      <c r="K108" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="3:11" x14ac:dyDescent="0.4">
       <c r="H109" t="s">
         <v>0</v>
       </c>
       <c r="I109" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J109" t="s">
+        <v>0</v>
+      </c>
+      <c r="K109" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="3:11" x14ac:dyDescent="0.4">
       <c r="H110" t="s">
         <v>0</v>
       </c>
       <c r="I110" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J110" t="s">
+        <v>0</v>
+      </c>
+      <c r="K110" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="3:11" x14ac:dyDescent="0.4">
       <c r="H111" t="s">
         <v>0</v>
       </c>
       <c r="I111" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J111" t="s">
+        <v>0</v>
+      </c>
+      <c r="K111" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="3:11" x14ac:dyDescent="0.4">
       <c r="H112" t="s">
         <v>1</v>
       </c>
       <c r="I112" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="J112" t="s">
+        <v>0</v>
+      </c>
+      <c r="K112" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H113" t="s">
         <v>1</v>
       </c>
       <c r="I113" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="J113" t="s">
+        <v>0</v>
+      </c>
+      <c r="K113" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H114" t="s">
         <v>1</v>
       </c>
       <c r="I114" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="J114" t="s">
+        <v>0</v>
+      </c>
+      <c r="K114" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H115" t="s">
         <v>1</v>
       </c>
       <c r="I115" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="J115" t="s">
+        <v>1</v>
+      </c>
+      <c r="K115" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H116" t="s">
         <v>1</v>
       </c>
       <c r="I116" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="J116" t="s">
+        <v>1</v>
+      </c>
+      <c r="K116" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H117" t="s">
         <v>1</v>
       </c>
       <c r="I117" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="J117" t="s">
+        <v>1</v>
+      </c>
+      <c r="K117" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H118" t="s">
         <v>1</v>
       </c>
       <c r="I118" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="J118" t="s">
+        <v>1</v>
+      </c>
+      <c r="K118" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H119" t="s">
         <v>1</v>
       </c>
       <c r="I119" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="J119" t="s">
+        <v>1</v>
+      </c>
+      <c r="K119" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H120" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="J120" t="s">
+        <v>1</v>
+      </c>
+      <c r="K120" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H121" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="J121" t="s">
+        <v>1</v>
+      </c>
+      <c r="K121" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H122" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="J122" t="s">
+        <v>1</v>
+      </c>
+      <c r="K122" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H123" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="K123" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H124" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="K124" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H125" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="K125" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H126" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="K126" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H127" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="K127" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H128" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="K128" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H129" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="K129" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H130" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="K130" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H131" t="s">
         <v>1</v>
       </c>
+      <c r="K131" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="8:11" x14ac:dyDescent="0.4">
+      <c r="K132" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="8:11" x14ac:dyDescent="0.4">
+      <c r="K133" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="8:11" x14ac:dyDescent="0.4">
+      <c r="K134" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="8:11" x14ac:dyDescent="0.4">
+      <c r="K135" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I4:I119">
-    <sortCondition ref="I4:I119"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K4:K135">
+    <sortCondition ref="K4:K135"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
